--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_16-40.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_16-40.xlsx
@@ -1587,7 +1587,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1795,7 +1795,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
